--- a/AudioAnalysis/FELT/FeltRunner/ExcelResultsSummationTemplate.xlsx
+++ b/AudioAnalysis/FELT/FeltRunner/ExcelResultsSummationTemplate.xlsx
@@ -19,7 +19,7 @@
     <definedName name="SummaryFeatures">OFFSET(Summary!$C$5,0,0,MAX( MATCH(9.99E+307,Summary!$A:$A), MATCH(REPT("z",255),Summary!$5:$5) ),1)</definedName>
     <definedName name="SummaryGrid">Summary!$C$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -275,9 +275,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -292,27 +289,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="59"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -380,6 +364,22 @@
         </top>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -391,66 +391,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="FeatureMap" displayName="FeatureMap" ref="A4:U1000" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="FeatureMap" displayName="FeatureMap" ref="A4:U1000" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A4:U1000"/>
   <tableColumns count="21">
     <tableColumn id="1" name="File"/>
-    <tableColumn id="2" name="Analysis Name" dataDxfId="21"/>
-    <tableColumn id="3" name="A" dataDxfId="20">
+    <tableColumn id="2" name="Analysis Name" dataDxfId="19"/>
+    <tableColumn id="3" name="A" dataDxfId="18">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(C$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="B" dataDxfId="19">
+    <tableColumn id="4" name="B" dataDxfId="17">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(D$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="C" dataDxfId="18">
+    <tableColumn id="5" name="C" dataDxfId="16">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(E$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="D" dataDxfId="17">
+    <tableColumn id="6" name="D" dataDxfId="15">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(F$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="E" dataDxfId="16">
+    <tableColumn id="7" name="E" dataDxfId="14">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(G$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="F" dataDxfId="15">
+    <tableColumn id="8" name="F" dataDxfId="13">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(H$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="G" dataDxfId="14">
+    <tableColumn id="9" name="G" dataDxfId="12">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(I$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="H" dataDxfId="13">
+    <tableColumn id="10" name="H" dataDxfId="11">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(J$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="I" dataDxfId="12">
+    <tableColumn id="11" name="I" dataDxfId="10">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(K$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="J" dataDxfId="11">
+    <tableColumn id="12" name="J" dataDxfId="9">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(L$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="K" dataDxfId="10">
+    <tableColumn id="13" name="K" dataDxfId="8">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(M$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="L" dataDxfId="9">
+    <tableColumn id="14" name="L" dataDxfId="7">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(N$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="M" dataDxfId="8">
+    <tableColumn id="15" name="M" dataDxfId="6">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(O$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="N" dataDxfId="7">
+    <tableColumn id="16" name="N" dataDxfId="5">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(P$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="O" dataDxfId="6">
+    <tableColumn id="17" name="O" dataDxfId="4">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(Q$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="P" dataDxfId="5">
+    <tableColumn id="18" name="P" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(R$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Q" dataDxfId="4">
+    <tableColumn id="19" name="Q" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(S$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="R" dataDxfId="3">
+    <tableColumn id="20" name="R" dataDxfId="1">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(T$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="S" dataDxfId="2">
+    <tableColumn id="21" name="S" dataDxfId="0">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(U$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -749,7 +749,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,31 +762,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
@@ -814,72 +814,72 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
     </row>
     <row r="4" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="V4" s="4"/>
@@ -894,7 +894,6 @@
         <v>33</v>
       </c>
       <c r="C5" s="8">
-        <f ca="1">IF(ISNUMBER(MATCH(C$3,INDIRECT($A5&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v>1</v>
       </c>
       <c r="D5" s="8" t="str">
@@ -902,16 +901,14 @@
         <v/>
       </c>
       <c r="E5" s="8">
-        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G5" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+      <c r="G5" s="8">
+        <v>1</v>
       </c>
       <c r="H5" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -978,7 +975,6 @@
         <v>34</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" ref="C6:R69" ca="1" si="1">IF(ISNUMBER(MATCH(C$3,INDIRECT($A6&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v>1</v>
       </c>
       <c r="D6" s="8" t="str">
@@ -986,7 +982,6 @@
         <v/>
       </c>
       <c r="E6" s="8">
-        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="F6" s="8" t="str">
@@ -1058,9 +1053,8 @@
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
+      <c r="C7" s="8">
+        <v>1</v>
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1140,24 +1134,22 @@
         <v>36</v>
       </c>
       <c r="C8" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="C6:R35" ca="1" si="1">IF(ISNUMBER(MATCH(C$3,INDIRECT($A8&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E8" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+      <c r="E8" s="8">
+        <v>1</v>
       </c>
       <c r="F8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G8" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+      <c r="G8" s="8">
+        <v>1</v>
       </c>
       <c r="H8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1236,9 +1228,8 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G9" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+      <c r="G9" s="8">
+        <v>1</v>
       </c>
       <c r="H9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1301,9 +1292,8 @@
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
+      <c r="C10" s="8">
+        <v>1</v>
       </c>
       <c r="D10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1317,9 +1307,8 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G10" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+      <c r="G10" s="8">
+        <v>1</v>
       </c>
       <c r="H10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2020,7 +2009,7 @@
         <v/>
       </c>
       <c r="G19" s="8" t="str">
-        <f t="shared" ref="G19:U82" ca="1" si="2">IF(ISNUMBER(MATCH(G$3,INDIRECT($A19&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="G19:U49" ca="1" si="2">IF(ISNUMBER(MATCH(G$3,INDIRECT($A19&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="H19" s="8" t="str">
@@ -3256,7 +3245,7 @@
         <v/>
       </c>
       <c r="D35" s="8" t="str">
-        <f t="shared" ref="D35:S98" ca="1" si="3">IF(ISNUMBER(MATCH(D$3,INDIRECT($A35&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="D35:S50" ca="1" si="3">IF(ISNUMBER(MATCH(D$3,INDIRECT($A35&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="E35" s="8" t="str">
@@ -3330,7 +3319,7 @@
     </row>
     <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36" s="8" t="str">
-        <f t="shared" ref="C36:R99" ca="1" si="4">IF(ISNUMBER(MATCH(C$3,INDIRECT($A36&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C36:R65" ca="1" si="4">IF(ISNUMBER(MATCH(C$3,INDIRECT($A36&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D36" s="8" t="str">
@@ -4486,7 +4475,7 @@
         <v/>
       </c>
       <c r="S50" s="8" t="str">
-        <f t="shared" ref="S50:U113" ca="1" si="5">IF(ISNUMBER(MATCH(S$3,INDIRECT($A50&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="S50:U80" ca="1" si="5">IF(ISNUMBER(MATCH(S$3,INDIRECT($A50&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="T50" s="8" t="str">
@@ -5670,7 +5659,7 @@
     </row>
     <row r="66" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C66" s="8" t="str">
-        <f t="shared" ref="C66:R129" ca="1" si="6">IF(ISNUMBER(MATCH(C$3,INDIRECT($A66&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C66:R81" ca="1" si="6">IF(ISNUMBER(MATCH(C$3,INDIRECT($A66&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D66" s="8" t="str">
@@ -6900,7 +6889,7 @@
         <v/>
       </c>
       <c r="R81" s="8" t="str">
-        <f t="shared" ref="R81:U144" ca="1" si="7">IF(ISNUMBER(MATCH(R$3,INDIRECT($A81&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R81:U96" ca="1" si="7">IF(ISNUMBER(MATCH(R$3,INDIRECT($A81&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S81" s="8" t="str">
@@ -6918,7 +6907,7 @@
     </row>
     <row r="82" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C82" s="8" t="str">
-        <f t="shared" ref="C82:R145" ca="1" si="8">IF(ISNUMBER(MATCH(C$3,INDIRECT($A82&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C82:R97" ca="1" si="8">IF(ISNUMBER(MATCH(C$3,INDIRECT($A82&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D82" s="8" t="str">
@@ -8148,7 +8137,7 @@
         <v/>
       </c>
       <c r="R97" s="8" t="str">
-        <f t="shared" ref="R97:U160" ca="1" si="9">IF(ISNUMBER(MATCH(R$3,INDIRECT($A97&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R97:U112" ca="1" si="9">IF(ISNUMBER(MATCH(R$3,INDIRECT($A97&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S97" s="8" t="str">
@@ -8166,7 +8155,7 @@
     </row>
     <row r="98" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C98" s="8" t="str">
-        <f t="shared" ref="C98:R161" ca="1" si="10">IF(ISNUMBER(MATCH(C$3,INDIRECT($A98&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C98:R113" ca="1" si="10">IF(ISNUMBER(MATCH(C$3,INDIRECT($A98&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D98" s="8" t="str">
@@ -9396,7 +9385,7 @@
         <v/>
       </c>
       <c r="R113" s="8" t="str">
-        <f t="shared" ref="R113:U176" ca="1" si="11">IF(ISNUMBER(MATCH(R$3,INDIRECT($A113&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R113:U128" ca="1" si="11">IF(ISNUMBER(MATCH(R$3,INDIRECT($A113&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S113" s="8" t="str">
@@ -9414,7 +9403,7 @@
     </row>
     <row r="114" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C114" s="8" t="str">
-        <f t="shared" ref="C114:R177" ca="1" si="12">IF(ISNUMBER(MATCH(C$3,INDIRECT($A114&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C114:R129" ca="1" si="12">IF(ISNUMBER(MATCH(C$3,INDIRECT($A114&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D114" s="8" t="str">
@@ -10644,7 +10633,7 @@
         <v/>
       </c>
       <c r="R129" s="8" t="str">
-        <f t="shared" ref="R129:U192" ca="1" si="13">IF(ISNUMBER(MATCH(R$3,INDIRECT($A129&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R129:U144" ca="1" si="13">IF(ISNUMBER(MATCH(R$3,INDIRECT($A129&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S129" s="8" t="str">
@@ -10662,7 +10651,7 @@
     </row>
     <row r="130" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C130" s="8" t="str">
-        <f t="shared" ref="C130:R193" ca="1" si="14">IF(ISNUMBER(MATCH(C$3,INDIRECT($A130&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C130:R145" ca="1" si="14">IF(ISNUMBER(MATCH(C$3,INDIRECT($A130&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D130" s="8" t="str">
@@ -11892,7 +11881,7 @@
         <v/>
       </c>
       <c r="R145" s="8" t="str">
-        <f t="shared" ref="R145:U208" ca="1" si="15">IF(ISNUMBER(MATCH(R$3,INDIRECT($A145&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R145:U160" ca="1" si="15">IF(ISNUMBER(MATCH(R$3,INDIRECT($A145&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S145" s="8" t="str">
@@ -11910,7 +11899,7 @@
     </row>
     <row r="146" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C146" s="8" t="str">
-        <f t="shared" ref="C146:R209" ca="1" si="16">IF(ISNUMBER(MATCH(C$3,INDIRECT($A146&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C146:R161" ca="1" si="16">IF(ISNUMBER(MATCH(C$3,INDIRECT($A146&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D146" s="8" t="str">
@@ -13140,7 +13129,7 @@
         <v/>
       </c>
       <c r="R161" s="8" t="str">
-        <f t="shared" ref="R161:U224" ca="1" si="17">IF(ISNUMBER(MATCH(R$3,INDIRECT($A161&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R161:U176" ca="1" si="17">IF(ISNUMBER(MATCH(R$3,INDIRECT($A161&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S161" s="8" t="str">
@@ -13158,7 +13147,7 @@
     </row>
     <row r="162" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C162" s="8" t="str">
-        <f t="shared" ref="C162:R225" ca="1" si="18">IF(ISNUMBER(MATCH(C$3,INDIRECT($A162&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C162:R177" ca="1" si="18">IF(ISNUMBER(MATCH(C$3,INDIRECT($A162&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D162" s="8" t="str">
@@ -14388,7 +14377,7 @@
         <v/>
       </c>
       <c r="R177" s="8" t="str">
-        <f t="shared" ref="R177:U240" ca="1" si="19">IF(ISNUMBER(MATCH(R$3,INDIRECT($A177&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R177:U192" ca="1" si="19">IF(ISNUMBER(MATCH(R$3,INDIRECT($A177&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S177" s="8" t="str">
@@ -14406,7 +14395,7 @@
     </row>
     <row r="178" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C178" s="8" t="str">
-        <f t="shared" ref="C178:R241" ca="1" si="20">IF(ISNUMBER(MATCH(C$3,INDIRECT($A178&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C178:R193" ca="1" si="20">IF(ISNUMBER(MATCH(C$3,INDIRECT($A178&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D178" s="8" t="str">
@@ -15636,7 +15625,7 @@
         <v/>
       </c>
       <c r="R193" s="8" t="str">
-        <f t="shared" ref="R193:U256" ca="1" si="21">IF(ISNUMBER(MATCH(R$3,INDIRECT($A193&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R193:U208" ca="1" si="21">IF(ISNUMBER(MATCH(R$3,INDIRECT($A193&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S193" s="8" t="str">
@@ -15654,7 +15643,7 @@
     </row>
     <row r="194" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C194" s="8" t="str">
-        <f t="shared" ref="C194:R257" ca="1" si="22">IF(ISNUMBER(MATCH(C$3,INDIRECT($A194&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C194:R209" ca="1" si="22">IF(ISNUMBER(MATCH(C$3,INDIRECT($A194&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D194" s="8" t="str">
@@ -16884,7 +16873,7 @@
         <v/>
       </c>
       <c r="R209" s="8" t="str">
-        <f t="shared" ref="R209:U272" ca="1" si="23">IF(ISNUMBER(MATCH(R$3,INDIRECT($A209&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R209:U224" ca="1" si="23">IF(ISNUMBER(MATCH(R$3,INDIRECT($A209&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S209" s="8" t="str">
@@ -16902,7 +16891,7 @@
     </row>
     <row r="210" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C210" s="8" t="str">
-        <f t="shared" ref="C210:R273" ca="1" si="24">IF(ISNUMBER(MATCH(C$3,INDIRECT($A210&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C210:R225" ca="1" si="24">IF(ISNUMBER(MATCH(C$3,INDIRECT($A210&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D210" s="8" t="str">
@@ -18132,7 +18121,7 @@
         <v/>
       </c>
       <c r="R225" s="8" t="str">
-        <f t="shared" ref="R225:U288" ca="1" si="25">IF(ISNUMBER(MATCH(R$3,INDIRECT($A225&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R225:U240" ca="1" si="25">IF(ISNUMBER(MATCH(R$3,INDIRECT($A225&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S225" s="8" t="str">
@@ -18150,7 +18139,7 @@
     </row>
     <row r="226" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C226" s="8" t="str">
-        <f t="shared" ref="C226:R289" ca="1" si="26">IF(ISNUMBER(MATCH(C$3,INDIRECT($A226&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C226:R241" ca="1" si="26">IF(ISNUMBER(MATCH(C$3,INDIRECT($A226&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D226" s="8" t="str">
@@ -19380,7 +19369,7 @@
         <v/>
       </c>
       <c r="R241" s="8" t="str">
-        <f t="shared" ref="R241:U304" ca="1" si="27">IF(ISNUMBER(MATCH(R$3,INDIRECT($A241&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R241:U256" ca="1" si="27">IF(ISNUMBER(MATCH(R$3,INDIRECT($A241&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S241" s="8" t="str">
@@ -19398,7 +19387,7 @@
     </row>
     <row r="242" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C242" s="8" t="str">
-        <f t="shared" ref="C242:R305" ca="1" si="28">IF(ISNUMBER(MATCH(C$3,INDIRECT($A242&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C242:R257" ca="1" si="28">IF(ISNUMBER(MATCH(C$3,INDIRECT($A242&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D242" s="8" t="str">
@@ -20628,7 +20617,7 @@
         <v/>
       </c>
       <c r="R257" s="8" t="str">
-        <f t="shared" ref="R257:U320" ca="1" si="29">IF(ISNUMBER(MATCH(R$3,INDIRECT($A257&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R257:U272" ca="1" si="29">IF(ISNUMBER(MATCH(R$3,INDIRECT($A257&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S257" s="8" t="str">
@@ -20646,7 +20635,7 @@
     </row>
     <row r="258" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C258" s="8" t="str">
-        <f t="shared" ref="C258:R321" ca="1" si="30">IF(ISNUMBER(MATCH(C$3,INDIRECT($A258&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C258:R273" ca="1" si="30">IF(ISNUMBER(MATCH(C$3,INDIRECT($A258&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D258" s="8" t="str">
@@ -21876,7 +21865,7 @@
         <v/>
       </c>
       <c r="R273" s="8" t="str">
-        <f t="shared" ref="R273:U336" ca="1" si="31">IF(ISNUMBER(MATCH(R$3,INDIRECT($A273&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R273:U288" ca="1" si="31">IF(ISNUMBER(MATCH(R$3,INDIRECT($A273&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S273" s="8" t="str">
@@ -21894,7 +21883,7 @@
     </row>
     <row r="274" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C274" s="8" t="str">
-        <f t="shared" ref="C274:R337" ca="1" si="32">IF(ISNUMBER(MATCH(C$3,INDIRECT($A274&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C274:R289" ca="1" si="32">IF(ISNUMBER(MATCH(C$3,INDIRECT($A274&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D274" s="8" t="str">
@@ -23124,7 +23113,7 @@
         <v/>
       </c>
       <c r="R289" s="8" t="str">
-        <f t="shared" ref="R289:U352" ca="1" si="33">IF(ISNUMBER(MATCH(R$3,INDIRECT($A289&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R289:U304" ca="1" si="33">IF(ISNUMBER(MATCH(R$3,INDIRECT($A289&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S289" s="8" t="str">
@@ -23142,7 +23131,7 @@
     </row>
     <row r="290" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C290" s="8" t="str">
-        <f t="shared" ref="C290:R353" ca="1" si="34">IF(ISNUMBER(MATCH(C$3,INDIRECT($A290&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C290:R305" ca="1" si="34">IF(ISNUMBER(MATCH(C$3,INDIRECT($A290&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D290" s="8" t="str">
@@ -24372,7 +24361,7 @@
         <v/>
       </c>
       <c r="R305" s="8" t="str">
-        <f t="shared" ref="R305:U368" ca="1" si="35">IF(ISNUMBER(MATCH(R$3,INDIRECT($A305&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R305:U320" ca="1" si="35">IF(ISNUMBER(MATCH(R$3,INDIRECT($A305&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S305" s="8" t="str">
@@ -24390,7 +24379,7 @@
     </row>
     <row r="306" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C306" s="8" t="str">
-        <f t="shared" ref="C306:R369" ca="1" si="36">IF(ISNUMBER(MATCH(C$3,INDIRECT($A306&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C306:R321" ca="1" si="36">IF(ISNUMBER(MATCH(C$3,INDIRECT($A306&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D306" s="8" t="str">
@@ -25620,7 +25609,7 @@
         <v/>
       </c>
       <c r="R321" s="8" t="str">
-        <f t="shared" ref="R321:U384" ca="1" si="37">IF(ISNUMBER(MATCH(R$3,INDIRECT($A321&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R321:U336" ca="1" si="37">IF(ISNUMBER(MATCH(R$3,INDIRECT($A321&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S321" s="8" t="str">
@@ -25638,7 +25627,7 @@
     </row>
     <row r="322" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C322" s="8" t="str">
-        <f t="shared" ref="C322:R385" ca="1" si="38">IF(ISNUMBER(MATCH(C$3,INDIRECT($A322&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C322:R337" ca="1" si="38">IF(ISNUMBER(MATCH(C$3,INDIRECT($A322&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D322" s="8" t="str">
@@ -26868,7 +26857,7 @@
         <v/>
       </c>
       <c r="R337" s="8" t="str">
-        <f t="shared" ref="R337:U400" ca="1" si="39">IF(ISNUMBER(MATCH(R$3,INDIRECT($A337&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R337:U352" ca="1" si="39">IF(ISNUMBER(MATCH(R$3,INDIRECT($A337&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S337" s="8" t="str">
@@ -26886,7 +26875,7 @@
     </row>
     <row r="338" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C338" s="8" t="str">
-        <f t="shared" ref="C338:R401" ca="1" si="40">IF(ISNUMBER(MATCH(C$3,INDIRECT($A338&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C338:R353" ca="1" si="40">IF(ISNUMBER(MATCH(C$3,INDIRECT($A338&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D338" s="8" t="str">
@@ -28116,7 +28105,7 @@
         <v/>
       </c>
       <c r="R353" s="8" t="str">
-        <f t="shared" ref="R353:U416" ca="1" si="41">IF(ISNUMBER(MATCH(R$3,INDIRECT($A353&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R353:U368" ca="1" si="41">IF(ISNUMBER(MATCH(R$3,INDIRECT($A353&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S353" s="8" t="str">
@@ -28134,7 +28123,7 @@
     </row>
     <row r="354" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C354" s="8" t="str">
-        <f t="shared" ref="C354:R417" ca="1" si="42">IF(ISNUMBER(MATCH(C$3,INDIRECT($A354&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C354:R369" ca="1" si="42">IF(ISNUMBER(MATCH(C$3,INDIRECT($A354&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D354" s="8" t="str">
@@ -29364,7 +29353,7 @@
         <v/>
       </c>
       <c r="R369" s="8" t="str">
-        <f t="shared" ref="R369:U432" ca="1" si="43">IF(ISNUMBER(MATCH(R$3,INDIRECT($A369&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R369:U384" ca="1" si="43">IF(ISNUMBER(MATCH(R$3,INDIRECT($A369&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S369" s="8" t="str">
@@ -29382,7 +29371,7 @@
     </row>
     <row r="370" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C370" s="8" t="str">
-        <f t="shared" ref="C370:R433" ca="1" si="44">IF(ISNUMBER(MATCH(C$3,INDIRECT($A370&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C370:R385" ca="1" si="44">IF(ISNUMBER(MATCH(C$3,INDIRECT($A370&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D370" s="8" t="str">
@@ -30612,7 +30601,7 @@
         <v/>
       </c>
       <c r="R385" s="8" t="str">
-        <f t="shared" ref="R385:U448" ca="1" si="45">IF(ISNUMBER(MATCH(R$3,INDIRECT($A385&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R385:U400" ca="1" si="45">IF(ISNUMBER(MATCH(R$3,INDIRECT($A385&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S385" s="8" t="str">
@@ -30630,7 +30619,7 @@
     </row>
     <row r="386" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C386" s="8" t="str">
-        <f t="shared" ref="C386:R449" ca="1" si="46">IF(ISNUMBER(MATCH(C$3,INDIRECT($A386&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C386:R401" ca="1" si="46">IF(ISNUMBER(MATCH(C$3,INDIRECT($A386&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D386" s="8" t="str">
@@ -31860,7 +31849,7 @@
         <v/>
       </c>
       <c r="R401" s="8" t="str">
-        <f t="shared" ref="R401:U464" ca="1" si="47">IF(ISNUMBER(MATCH(R$3,INDIRECT($A401&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R401:U416" ca="1" si="47">IF(ISNUMBER(MATCH(R$3,INDIRECT($A401&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S401" s="8" t="str">
@@ -31878,7 +31867,7 @@
     </row>
     <row r="402" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C402" s="8" t="str">
-        <f t="shared" ref="C402:R465" ca="1" si="48">IF(ISNUMBER(MATCH(C$3,INDIRECT($A402&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C402:R417" ca="1" si="48">IF(ISNUMBER(MATCH(C$3,INDIRECT($A402&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D402" s="8" t="str">
@@ -33108,7 +33097,7 @@
         <v/>
       </c>
       <c r="R417" s="8" t="str">
-        <f t="shared" ref="R417:U480" ca="1" si="49">IF(ISNUMBER(MATCH(R$3,INDIRECT($A417&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R417:U432" ca="1" si="49">IF(ISNUMBER(MATCH(R$3,INDIRECT($A417&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S417" s="8" t="str">
@@ -33126,7 +33115,7 @@
     </row>
     <row r="418" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C418" s="8" t="str">
-        <f t="shared" ref="C418:R481" ca="1" si="50">IF(ISNUMBER(MATCH(C$3,INDIRECT($A418&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C418:R433" ca="1" si="50">IF(ISNUMBER(MATCH(C$3,INDIRECT($A418&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D418" s="8" t="str">
@@ -34356,7 +34345,7 @@
         <v/>
       </c>
       <c r="R433" s="8" t="str">
-        <f t="shared" ref="R433:U496" ca="1" si="51">IF(ISNUMBER(MATCH(R$3,INDIRECT($A433&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R433:U448" ca="1" si="51">IF(ISNUMBER(MATCH(R$3,INDIRECT($A433&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S433" s="8" t="str">
@@ -34374,7 +34363,7 @@
     </row>
     <row r="434" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C434" s="8" t="str">
-        <f t="shared" ref="C434:R497" ca="1" si="52">IF(ISNUMBER(MATCH(C$3,INDIRECT($A434&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C434:R449" ca="1" si="52">IF(ISNUMBER(MATCH(C$3,INDIRECT($A434&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D434" s="8" t="str">
@@ -35604,7 +35593,7 @@
         <v/>
       </c>
       <c r="R449" s="8" t="str">
-        <f t="shared" ref="R449:U512" ca="1" si="53">IF(ISNUMBER(MATCH(R$3,INDIRECT($A449&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R449:U464" ca="1" si="53">IF(ISNUMBER(MATCH(R$3,INDIRECT($A449&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S449" s="8" t="str">
@@ -35622,7 +35611,7 @@
     </row>
     <row r="450" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C450" s="8" t="str">
-        <f t="shared" ref="C450:R513" ca="1" si="54">IF(ISNUMBER(MATCH(C$3,INDIRECT($A450&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C450:R465" ca="1" si="54">IF(ISNUMBER(MATCH(C$3,INDIRECT($A450&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D450" s="8" t="str">
@@ -36852,7 +36841,7 @@
         <v/>
       </c>
       <c r="R465" s="8" t="str">
-        <f t="shared" ref="R465:U528" ca="1" si="55">IF(ISNUMBER(MATCH(R$3,INDIRECT($A465&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R465:U480" ca="1" si="55">IF(ISNUMBER(MATCH(R$3,INDIRECT($A465&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S465" s="8" t="str">
@@ -36870,7 +36859,7 @@
     </row>
     <row r="466" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C466" s="8" t="str">
-        <f t="shared" ref="C466:R529" ca="1" si="56">IF(ISNUMBER(MATCH(C$3,INDIRECT($A466&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C466:R481" ca="1" si="56">IF(ISNUMBER(MATCH(C$3,INDIRECT($A466&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D466" s="8" t="str">
@@ -38100,7 +38089,7 @@
         <v/>
       </c>
       <c r="R481" s="8" t="str">
-        <f t="shared" ref="R481:U544" ca="1" si="57">IF(ISNUMBER(MATCH(R$3,INDIRECT($A481&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R481:U496" ca="1" si="57">IF(ISNUMBER(MATCH(R$3,INDIRECT($A481&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S481" s="8" t="str">
@@ -38118,7 +38107,7 @@
     </row>
     <row r="482" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C482" s="8" t="str">
-        <f t="shared" ref="C482:R545" ca="1" si="58">IF(ISNUMBER(MATCH(C$3,INDIRECT($A482&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C482:R497" ca="1" si="58">IF(ISNUMBER(MATCH(C$3,INDIRECT($A482&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D482" s="8" t="str">
@@ -39348,7 +39337,7 @@
         <v/>
       </c>
       <c r="R497" s="8" t="str">
-        <f t="shared" ref="R497:U560" ca="1" si="59">IF(ISNUMBER(MATCH(R$3,INDIRECT($A497&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R497:U512" ca="1" si="59">IF(ISNUMBER(MATCH(R$3,INDIRECT($A497&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S497" s="8" t="str">
@@ -39366,7 +39355,7 @@
     </row>
     <row r="498" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C498" s="8" t="str">
-        <f t="shared" ref="C498:R561" ca="1" si="60">IF(ISNUMBER(MATCH(C$3,INDIRECT($A498&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C498:R513" ca="1" si="60">IF(ISNUMBER(MATCH(C$3,INDIRECT($A498&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D498" s="8" t="str">
@@ -40596,7 +40585,7 @@
         <v/>
       </c>
       <c r="R513" s="8" t="str">
-        <f t="shared" ref="R513:U576" ca="1" si="61">IF(ISNUMBER(MATCH(R$3,INDIRECT($A513&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R513:U528" ca="1" si="61">IF(ISNUMBER(MATCH(R$3,INDIRECT($A513&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S513" s="8" t="str">
@@ -40614,7 +40603,7 @@
     </row>
     <row r="514" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C514" s="8" t="str">
-        <f t="shared" ref="C514:R577" ca="1" si="62">IF(ISNUMBER(MATCH(C$3,INDIRECT($A514&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C514:R529" ca="1" si="62">IF(ISNUMBER(MATCH(C$3,INDIRECT($A514&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D514" s="8" t="str">
@@ -41844,7 +41833,7 @@
         <v/>
       </c>
       <c r="R529" s="8" t="str">
-        <f t="shared" ref="R529:U592" ca="1" si="63">IF(ISNUMBER(MATCH(R$3,INDIRECT($A529&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R529:U544" ca="1" si="63">IF(ISNUMBER(MATCH(R$3,INDIRECT($A529&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S529" s="8" t="str">
@@ -41862,7 +41851,7 @@
     </row>
     <row r="530" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C530" s="8" t="str">
-        <f t="shared" ref="C530:R593" ca="1" si="64">IF(ISNUMBER(MATCH(C$3,INDIRECT($A530&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C530:R545" ca="1" si="64">IF(ISNUMBER(MATCH(C$3,INDIRECT($A530&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D530" s="8" t="str">
@@ -43092,7 +43081,7 @@
         <v/>
       </c>
       <c r="R545" s="8" t="str">
-        <f t="shared" ref="R545:U608" ca="1" si="65">IF(ISNUMBER(MATCH(R$3,INDIRECT($A545&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R545:U560" ca="1" si="65">IF(ISNUMBER(MATCH(R$3,INDIRECT($A545&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S545" s="8" t="str">
@@ -43110,7 +43099,7 @@
     </row>
     <row r="546" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C546" s="8" t="str">
-        <f t="shared" ref="C546:R609" ca="1" si="66">IF(ISNUMBER(MATCH(C$3,INDIRECT($A546&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C546:R561" ca="1" si="66">IF(ISNUMBER(MATCH(C$3,INDIRECT($A546&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D546" s="8" t="str">
@@ -44340,7 +44329,7 @@
         <v/>
       </c>
       <c r="R561" s="8" t="str">
-        <f t="shared" ref="R561:U624" ca="1" si="67">IF(ISNUMBER(MATCH(R$3,INDIRECT($A561&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R561:U576" ca="1" si="67">IF(ISNUMBER(MATCH(R$3,INDIRECT($A561&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S561" s="8" t="str">
@@ -44358,7 +44347,7 @@
     </row>
     <row r="562" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C562" s="8" t="str">
-        <f t="shared" ref="C562:R625" ca="1" si="68">IF(ISNUMBER(MATCH(C$3,INDIRECT($A562&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C562:R577" ca="1" si="68">IF(ISNUMBER(MATCH(C$3,INDIRECT($A562&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D562" s="8" t="str">
@@ -45588,7 +45577,7 @@
         <v/>
       </c>
       <c r="R577" s="8" t="str">
-        <f t="shared" ref="R577:U640" ca="1" si="69">IF(ISNUMBER(MATCH(R$3,INDIRECT($A577&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R577:U592" ca="1" si="69">IF(ISNUMBER(MATCH(R$3,INDIRECT($A577&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S577" s="8" t="str">
@@ -45606,7 +45595,7 @@
     </row>
     <row r="578" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C578" s="8" t="str">
-        <f t="shared" ref="C578:R641" ca="1" si="70">IF(ISNUMBER(MATCH(C$3,INDIRECT($A578&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C578:R593" ca="1" si="70">IF(ISNUMBER(MATCH(C$3,INDIRECT($A578&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D578" s="8" t="str">
@@ -46836,7 +46825,7 @@
         <v/>
       </c>
       <c r="R593" s="8" t="str">
-        <f t="shared" ref="R593:U656" ca="1" si="71">IF(ISNUMBER(MATCH(R$3,INDIRECT($A593&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R593:U608" ca="1" si="71">IF(ISNUMBER(MATCH(R$3,INDIRECT($A593&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S593" s="8" t="str">
@@ -46854,7 +46843,7 @@
     </row>
     <row r="594" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C594" s="8" t="str">
-        <f t="shared" ref="C594:R657" ca="1" si="72">IF(ISNUMBER(MATCH(C$3,INDIRECT($A594&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C594:R609" ca="1" si="72">IF(ISNUMBER(MATCH(C$3,INDIRECT($A594&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D594" s="8" t="str">
@@ -48084,7 +48073,7 @@
         <v/>
       </c>
       <c r="R609" s="8" t="str">
-        <f t="shared" ref="R609:U672" ca="1" si="73">IF(ISNUMBER(MATCH(R$3,INDIRECT($A609&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R609:U624" ca="1" si="73">IF(ISNUMBER(MATCH(R$3,INDIRECT($A609&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S609" s="8" t="str">
@@ -48102,7 +48091,7 @@
     </row>
     <row r="610" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C610" s="8" t="str">
-        <f t="shared" ref="C610:R673" ca="1" si="74">IF(ISNUMBER(MATCH(C$3,INDIRECT($A610&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C610:R625" ca="1" si="74">IF(ISNUMBER(MATCH(C$3,INDIRECT($A610&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D610" s="8" t="str">
@@ -49332,7 +49321,7 @@
         <v/>
       </c>
       <c r="R625" s="8" t="str">
-        <f t="shared" ref="R625:U688" ca="1" si="75">IF(ISNUMBER(MATCH(R$3,INDIRECT($A625&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R625:U640" ca="1" si="75">IF(ISNUMBER(MATCH(R$3,INDIRECT($A625&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S625" s="8" t="str">
@@ -49350,7 +49339,7 @@
     </row>
     <row r="626" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C626" s="8" t="str">
-        <f t="shared" ref="C626:R689" ca="1" si="76">IF(ISNUMBER(MATCH(C$3,INDIRECT($A626&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C626:R641" ca="1" si="76">IF(ISNUMBER(MATCH(C$3,INDIRECT($A626&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D626" s="8" t="str">
@@ -50580,7 +50569,7 @@
         <v/>
       </c>
       <c r="R641" s="8" t="str">
-        <f t="shared" ref="R641:U704" ca="1" si="77">IF(ISNUMBER(MATCH(R$3,INDIRECT($A641&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R641:U656" ca="1" si="77">IF(ISNUMBER(MATCH(R$3,INDIRECT($A641&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S641" s="8" t="str">
@@ -50598,7 +50587,7 @@
     </row>
     <row r="642" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C642" s="8" t="str">
-        <f t="shared" ref="C642:R705" ca="1" si="78">IF(ISNUMBER(MATCH(C$3,INDIRECT($A642&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C642:R657" ca="1" si="78">IF(ISNUMBER(MATCH(C$3,INDIRECT($A642&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D642" s="8" t="str">
@@ -51828,7 +51817,7 @@
         <v/>
       </c>
       <c r="R657" s="8" t="str">
-        <f t="shared" ref="R657:U720" ca="1" si="79">IF(ISNUMBER(MATCH(R$3,INDIRECT($A657&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R657:U672" ca="1" si="79">IF(ISNUMBER(MATCH(R$3,INDIRECT($A657&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S657" s="8" t="str">
@@ -51846,7 +51835,7 @@
     </row>
     <row r="658" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C658" s="8" t="str">
-        <f t="shared" ref="C658:R721" ca="1" si="80">IF(ISNUMBER(MATCH(C$3,INDIRECT($A658&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C658:R673" ca="1" si="80">IF(ISNUMBER(MATCH(C$3,INDIRECT($A658&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D658" s="8" t="str">
@@ -53076,7 +53065,7 @@
         <v/>
       </c>
       <c r="R673" s="8" t="str">
-        <f t="shared" ref="R673:U736" ca="1" si="81">IF(ISNUMBER(MATCH(R$3,INDIRECT($A673&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R673:U688" ca="1" si="81">IF(ISNUMBER(MATCH(R$3,INDIRECT($A673&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S673" s="8" t="str">
@@ -53094,7 +53083,7 @@
     </row>
     <row r="674" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C674" s="8" t="str">
-        <f t="shared" ref="C674:R737" ca="1" si="82">IF(ISNUMBER(MATCH(C$3,INDIRECT($A674&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C674:R689" ca="1" si="82">IF(ISNUMBER(MATCH(C$3,INDIRECT($A674&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D674" s="8" t="str">
@@ -54324,7 +54313,7 @@
         <v/>
       </c>
       <c r="R689" s="8" t="str">
-        <f t="shared" ref="R689:U752" ca="1" si="83">IF(ISNUMBER(MATCH(R$3,INDIRECT($A689&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R689:U704" ca="1" si="83">IF(ISNUMBER(MATCH(R$3,INDIRECT($A689&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S689" s="8" t="str">
@@ -54342,7 +54331,7 @@
     </row>
     <row r="690" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C690" s="8" t="str">
-        <f t="shared" ref="C690:R753" ca="1" si="84">IF(ISNUMBER(MATCH(C$3,INDIRECT($A690&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C690:R705" ca="1" si="84">IF(ISNUMBER(MATCH(C$3,INDIRECT($A690&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D690" s="8" t="str">
@@ -55572,7 +55561,7 @@
         <v/>
       </c>
       <c r="R705" s="8" t="str">
-        <f t="shared" ref="R705:U768" ca="1" si="85">IF(ISNUMBER(MATCH(R$3,INDIRECT($A705&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R705:U720" ca="1" si="85">IF(ISNUMBER(MATCH(R$3,INDIRECT($A705&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S705" s="8" t="str">
@@ -55590,7 +55579,7 @@
     </row>
     <row r="706" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C706" s="8" t="str">
-        <f t="shared" ref="C706:R769" ca="1" si="86">IF(ISNUMBER(MATCH(C$3,INDIRECT($A706&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C706:R721" ca="1" si="86">IF(ISNUMBER(MATCH(C$3,INDIRECT($A706&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D706" s="8" t="str">
@@ -56820,7 +56809,7 @@
         <v/>
       </c>
       <c r="R721" s="8" t="str">
-        <f t="shared" ref="R721:U784" ca="1" si="87">IF(ISNUMBER(MATCH(R$3,INDIRECT($A721&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R721:U736" ca="1" si="87">IF(ISNUMBER(MATCH(R$3,INDIRECT($A721&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S721" s="8" t="str">
@@ -56838,7 +56827,7 @@
     </row>
     <row r="722" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C722" s="8" t="str">
-        <f t="shared" ref="C722:R785" ca="1" si="88">IF(ISNUMBER(MATCH(C$3,INDIRECT($A722&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C722:R737" ca="1" si="88">IF(ISNUMBER(MATCH(C$3,INDIRECT($A722&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D722" s="8" t="str">
@@ -58068,7 +58057,7 @@
         <v/>
       </c>
       <c r="R737" s="8" t="str">
-        <f t="shared" ref="R737:U800" ca="1" si="89">IF(ISNUMBER(MATCH(R$3,INDIRECT($A737&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R737:U752" ca="1" si="89">IF(ISNUMBER(MATCH(R$3,INDIRECT($A737&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S737" s="8" t="str">
@@ -58086,7 +58075,7 @@
     </row>
     <row r="738" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C738" s="8" t="str">
-        <f t="shared" ref="C738:R801" ca="1" si="90">IF(ISNUMBER(MATCH(C$3,INDIRECT($A738&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C738:R753" ca="1" si="90">IF(ISNUMBER(MATCH(C$3,INDIRECT($A738&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D738" s="8" t="str">
@@ -59316,7 +59305,7 @@
         <v/>
       </c>
       <c r="R753" s="8" t="str">
-        <f t="shared" ref="R753:U816" ca="1" si="91">IF(ISNUMBER(MATCH(R$3,INDIRECT($A753&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R753:U768" ca="1" si="91">IF(ISNUMBER(MATCH(R$3,INDIRECT($A753&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S753" s="8" t="str">
@@ -59334,7 +59323,7 @@
     </row>
     <row r="754" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C754" s="8" t="str">
-        <f t="shared" ref="C754:R817" ca="1" si="92">IF(ISNUMBER(MATCH(C$3,INDIRECT($A754&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C754:R769" ca="1" si="92">IF(ISNUMBER(MATCH(C$3,INDIRECT($A754&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D754" s="8" t="str">
@@ -60564,7 +60553,7 @@
         <v/>
       </c>
       <c r="R769" s="8" t="str">
-        <f t="shared" ref="R769:U832" ca="1" si="93">IF(ISNUMBER(MATCH(R$3,INDIRECT($A769&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R769:U784" ca="1" si="93">IF(ISNUMBER(MATCH(R$3,INDIRECT($A769&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S769" s="8" t="str">
@@ -60582,7 +60571,7 @@
     </row>
     <row r="770" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C770" s="8" t="str">
-        <f t="shared" ref="C770:R833" ca="1" si="94">IF(ISNUMBER(MATCH(C$3,INDIRECT($A770&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C770:R785" ca="1" si="94">IF(ISNUMBER(MATCH(C$3,INDIRECT($A770&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D770" s="8" t="str">
@@ -61812,7 +61801,7 @@
         <v/>
       </c>
       <c r="R785" s="8" t="str">
-        <f t="shared" ref="R785:U848" ca="1" si="95">IF(ISNUMBER(MATCH(R$3,INDIRECT($A785&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R785:U800" ca="1" si="95">IF(ISNUMBER(MATCH(R$3,INDIRECT($A785&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S785" s="8" t="str">
@@ -61830,7 +61819,7 @@
     </row>
     <row r="786" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C786" s="8" t="str">
-        <f t="shared" ref="C786:R849" ca="1" si="96">IF(ISNUMBER(MATCH(C$3,INDIRECT($A786&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C786:R801" ca="1" si="96">IF(ISNUMBER(MATCH(C$3,INDIRECT($A786&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D786" s="8" t="str">
@@ -63060,7 +63049,7 @@
         <v/>
       </c>
       <c r="R801" s="8" t="str">
-        <f t="shared" ref="R801:U864" ca="1" si="97">IF(ISNUMBER(MATCH(R$3,INDIRECT($A801&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R801:U816" ca="1" si="97">IF(ISNUMBER(MATCH(R$3,INDIRECT($A801&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S801" s="8" t="str">
@@ -63078,7 +63067,7 @@
     </row>
     <row r="802" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C802" s="8" t="str">
-        <f t="shared" ref="C802:R833" ca="1" si="98">IF(ISNUMBER(MATCH(C$3,INDIRECT($A802&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C802:R817" ca="1" si="98">IF(ISNUMBER(MATCH(C$3,INDIRECT($A802&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D802" s="8" t="str">
@@ -64308,7 +64297,7 @@
         <v/>
       </c>
       <c r="R817" s="8" t="str">
-        <f t="shared" ref="R817:U880" ca="1" si="99">IF(ISNUMBER(MATCH(R$3,INDIRECT($A817&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R817:U832" ca="1" si="99">IF(ISNUMBER(MATCH(R$3,INDIRECT($A817&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S817" s="8" t="str">
@@ -64326,7 +64315,7 @@
     </row>
     <row r="818" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C818" s="8" t="str">
-        <f t="shared" ref="C818:R849" ca="1" si="100">IF(ISNUMBER(MATCH(C$3,INDIRECT($A818&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C818:R833" ca="1" si="100">IF(ISNUMBER(MATCH(C$3,INDIRECT($A818&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D818" s="8" t="str">
@@ -65556,7 +65545,7 @@
         <v/>
       </c>
       <c r="R833" s="8" t="str">
-        <f t="shared" ref="R833:U896" ca="1" si="101">IF(ISNUMBER(MATCH(R$3,INDIRECT($A833&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R833:U848" ca="1" si="101">IF(ISNUMBER(MATCH(R$3,INDIRECT($A833&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S833" s="8" t="str">
@@ -65574,7 +65563,7 @@
     </row>
     <row r="834" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C834" s="8" t="str">
-        <f t="shared" ref="C834:R865" ca="1" si="102">IF(ISNUMBER(MATCH(C$3,INDIRECT($A834&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C834:R849" ca="1" si="102">IF(ISNUMBER(MATCH(C$3,INDIRECT($A834&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D834" s="8" t="str">
@@ -66804,7 +66793,7 @@
         <v/>
       </c>
       <c r="R849" s="8" t="str">
-        <f t="shared" ref="R849:U912" ca="1" si="103">IF(ISNUMBER(MATCH(R$3,INDIRECT($A849&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R849:U864" ca="1" si="103">IF(ISNUMBER(MATCH(R$3,INDIRECT($A849&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S849" s="8" t="str">
@@ -66822,7 +66811,7 @@
     </row>
     <row r="850" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C850" s="8" t="str">
-        <f t="shared" ref="C850:R881" ca="1" si="104">IF(ISNUMBER(MATCH(C$3,INDIRECT($A850&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C850:R865" ca="1" si="104">IF(ISNUMBER(MATCH(C$3,INDIRECT($A850&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D850" s="8" t="str">
@@ -68052,7 +68041,7 @@
         <v/>
       </c>
       <c r="R865" s="8" t="str">
-        <f t="shared" ref="R865:U928" ca="1" si="105">IF(ISNUMBER(MATCH(R$3,INDIRECT($A865&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R865:U880" ca="1" si="105">IF(ISNUMBER(MATCH(R$3,INDIRECT($A865&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S865" s="8" t="str">
@@ -68070,7 +68059,7 @@
     </row>
     <row r="866" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C866" s="8" t="str">
-        <f t="shared" ref="C866:R897" ca="1" si="106">IF(ISNUMBER(MATCH(C$3,INDIRECT($A866&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C866:R881" ca="1" si="106">IF(ISNUMBER(MATCH(C$3,INDIRECT($A866&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D866" s="8" t="str">
@@ -69300,7 +69289,7 @@
         <v/>
       </c>
       <c r="R881" s="8" t="str">
-        <f t="shared" ref="R881:U944" ca="1" si="107">IF(ISNUMBER(MATCH(R$3,INDIRECT($A881&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R881:U896" ca="1" si="107">IF(ISNUMBER(MATCH(R$3,INDIRECT($A881&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S881" s="8" t="str">
@@ -69318,7 +69307,7 @@
     </row>
     <row r="882" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C882" s="8" t="str">
-        <f t="shared" ref="C882:R913" ca="1" si="108">IF(ISNUMBER(MATCH(C$3,INDIRECT($A882&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C882:R897" ca="1" si="108">IF(ISNUMBER(MATCH(C$3,INDIRECT($A882&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D882" s="8" t="str">
@@ -70548,7 +70537,7 @@
         <v/>
       </c>
       <c r="R897" s="8" t="str">
-        <f t="shared" ref="R897:U960" ca="1" si="109">IF(ISNUMBER(MATCH(R$3,INDIRECT($A897&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R897:U912" ca="1" si="109">IF(ISNUMBER(MATCH(R$3,INDIRECT($A897&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S897" s="8" t="str">
@@ -70566,7 +70555,7 @@
     </row>
     <row r="898" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C898" s="8" t="str">
-        <f t="shared" ref="C898:R929" ca="1" si="110">IF(ISNUMBER(MATCH(C$3,INDIRECT($A898&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C898:R913" ca="1" si="110">IF(ISNUMBER(MATCH(C$3,INDIRECT($A898&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D898" s="8" t="str">
@@ -71796,7 +71785,7 @@
         <v/>
       </c>
       <c r="R913" s="8" t="str">
-        <f t="shared" ref="R913:U976" ca="1" si="111">IF(ISNUMBER(MATCH(R$3,INDIRECT($A913&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R913:U928" ca="1" si="111">IF(ISNUMBER(MATCH(R$3,INDIRECT($A913&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S913" s="8" t="str">
@@ -71814,7 +71803,7 @@
     </row>
     <row r="914" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C914" s="8" t="str">
-        <f t="shared" ref="C914:R945" ca="1" si="112">IF(ISNUMBER(MATCH(C$3,INDIRECT($A914&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C914:R929" ca="1" si="112">IF(ISNUMBER(MATCH(C$3,INDIRECT($A914&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D914" s="8" t="str">
@@ -73044,7 +73033,7 @@
         <v/>
       </c>
       <c r="R929" s="8" t="str">
-        <f t="shared" ref="R929:U992" ca="1" si="113">IF(ISNUMBER(MATCH(R$3,INDIRECT($A929&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R929:U944" ca="1" si="113">IF(ISNUMBER(MATCH(R$3,INDIRECT($A929&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S929" s="8" t="str">
@@ -73062,7 +73051,7 @@
     </row>
     <row r="930" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C930" s="8" t="str">
-        <f t="shared" ref="C930:R961" ca="1" si="114">IF(ISNUMBER(MATCH(C$3,INDIRECT($A930&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C930:R945" ca="1" si="114">IF(ISNUMBER(MATCH(C$3,INDIRECT($A930&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D930" s="8" t="str">
@@ -74292,7 +74281,7 @@
         <v/>
       </c>
       <c r="R945" s="8" t="str">
-        <f t="shared" ref="R945:U1000" ca="1" si="115">IF(ISNUMBER(MATCH(R$3,INDIRECT($A945&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R945:U960" ca="1" si="115">IF(ISNUMBER(MATCH(R$3,INDIRECT($A945&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S945" s="8" t="str">
@@ -74310,7 +74299,7 @@
     </row>
     <row r="946" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C946" s="8" t="str">
-        <f t="shared" ref="C946:R977" ca="1" si="116">IF(ISNUMBER(MATCH(C$3,INDIRECT($A946&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C946:R961" ca="1" si="116">IF(ISNUMBER(MATCH(C$3,INDIRECT($A946&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D946" s="8" t="str">
@@ -75540,7 +75529,7 @@
         <v/>
       </c>
       <c r="R961" s="8" t="str">
-        <f t="shared" ref="R961:U1000" ca="1" si="117">IF(ISNUMBER(MATCH(R$3,INDIRECT($A961&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R961:U976" ca="1" si="117">IF(ISNUMBER(MATCH(R$3,INDIRECT($A961&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S961" s="8" t="str">
@@ -75558,7 +75547,7 @@
     </row>
     <row r="962" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C962" s="8" t="str">
-        <f t="shared" ref="C962:R1000" ca="1" si="118">IF(ISNUMBER(MATCH(C$3,INDIRECT($A962&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C962:R977" ca="1" si="118">IF(ISNUMBER(MATCH(C$3,INDIRECT($A962&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D962" s="8" t="str">
@@ -76788,7 +76777,7 @@
         <v/>
       </c>
       <c r="R977" s="8" t="str">
-        <f t="shared" ref="R977:U1000" ca="1" si="119">IF(ISNUMBER(MATCH(R$3,INDIRECT($A977&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="R977:U992" ca="1" si="119">IF(ISNUMBER(MATCH(R$3,INDIRECT($A977&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="S977" s="8" t="str">
@@ -76806,7 +76795,7 @@
     </row>
     <row r="978" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C978" s="8" t="str">
-        <f t="shared" ref="C978:R1000" ca="1" si="120">IF(ISNUMBER(MATCH(C$3,INDIRECT($A978&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
+        <f t="shared" ref="C978:R993" ca="1" si="120">IF(ISNUMBER(MATCH(C$3,INDIRECT($A978&amp;"!"&amp;CELL("address",$C$12)&amp;":"&amp;CELL("address",$ZZ$12)),0)),1,"")</f>
         <v/>
       </c>
       <c r="D978" s="8" t="str">
@@ -78625,7 +78614,7 @@
   <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78636,32 +78625,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -78730,8 +78719,12 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="str">
+    <row r="6" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="str">
+        <f>FeatureMap[File]</f>
+        <v>Template.xlsx</v>
+      </c>
+      <c r="B6" s="9" t="str">
         <f>FeatureMap[Analysis Name]</f>
         <v>Basic Grouped2</v>
       </c>
@@ -78762,35 +78755,101 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <f>ROW(AnalysisNames)</f>
         <v>5</v>
       </c>
       <c r="C8">
         <f ca="1">COUNT(Summary!C5:U5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9">
-        <f ca="1">COUNT(Summary!C6:U6)</f>
-        <v>2</v>
-      </c>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <f ca="1">COUNT(Summary!C7:U7)</f>
-        <v>0</v>
+      <c r="C10" t="str">
+        <f t="array" ref="C10:U10">IF( (Summary!C5:U5=1),Summary!C4:U4,"")</f>
+        <v>A</v>
+      </c>
+      <c r="D10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v>C</v>
+      </c>
+      <c r="F10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v>E</v>
+      </c>
+      <c r="H10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <f ca="1"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <f ca="1">COUNT(Summary!C8:U8)</f>
-        <v>0</v>
+      <c r="C11" t="str">
+        <f>(IF((Summary!C5:U5=1),Summary!C4:U4,""))</f>
+        <v>A</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -78819,8 +78878,8 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Performance!AC6:AH6</xm:f>
-              <xm:sqref>H6</xm:sqref>
+              <xm:f>Performance!AA6:AF6</xm:f>
+              <xm:sqref>F6</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -78835,8 +78894,8 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Performance!AA6:AF6</xm:f>
-              <xm:sqref>F6</xm:sqref>
+              <xm:f>Performance!AC6:AH6</xm:f>
+              <xm:sqref>H6</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/AudioAnalysis/FELT/FeltRunner/ExcelResultsSummationTemplate.xlsx
+++ b/AudioAnalysis/FELT/FeltRunner/ExcelResultsSummationTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>FELT TOOL SUMMATION</t>
   </si>
@@ -140,9 +140,6 @@
     <t>50 : Sensitivity</t>
   </si>
   <si>
-    <t>Feature Map</t>
-  </si>
-  <si>
     <t>AUC</t>
   </si>
   <si>
@@ -238,7 +235,7 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -616,56 +613,6 @@
       <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
@@ -692,13 +639,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="59"/>
@@ -799,17 +802,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="59"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="59"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="59"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -824,10 +823,10 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="59"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="59"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -854,14 +853,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="59"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="59"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1183,31 +1192,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="V2" s="11" t="s">
@@ -22292,7 +22301,7 @@
   <dimension ref="A1:BQ300"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ5" sqref="AJ5"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22304,54 +22313,54 @@
     <col min="23" max="23" width="26.28515625" style="39" hidden="1" customWidth="1"/>
     <col min="24" max="33" width="4.7109375" style="35" customWidth="1"/>
     <col min="34" max="34" width="4.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.85546875" style="67" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.28515625" style="68" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.28515625" style="66" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.28515625" style="34" customWidth="1"/>
     <col min="38" max="38" width="3.28515625" style="36" customWidth="1"/>
     <col min="39" max="44" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="72"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="70"/>
       <c r="AM1" s="25"/>
       <c r="AN1" s="25"/>
       <c r="AO1" s="25"/>
@@ -22398,8 +22407,8 @@
       <c r="AF2" s="46"/>
       <c r="AG2" s="46"/>
       <c r="AH2" s="46"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="60"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="58"/>
       <c r="AK2" s="42"/>
       <c r="AL2" s="42"/>
       <c r="AM2" s="9"/>
@@ -22439,85 +22448,143 @@
       <c r="AF3" s="47"/>
       <c r="AG3" s="47"/>
       <c r="AH3" s="47"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="62"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="60"/>
       <c r="AK3" s="45"/>
       <c r="AL3" s="45"/>
       <c r="AM3" s="26"/>
     </row>
-    <row r="4" spans="1:69" s="1" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" s="1" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="75" t="str">
+        <f>Summary!C3</f>
+        <v>Feature A B C D E F G H I</v>
+      </c>
+      <c r="D4" s="76">
+        <f>Summary!D3</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="76">
+        <f>Summary!E3</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="76">
+        <f>Summary!F3</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="76">
+        <f>Summary!G3</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="76">
+        <f>Summary!H3</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="76">
+        <f>Summary!I3</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="76">
+        <f>Summary!J3</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="76">
+        <f>Summary!K3</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="76">
+        <f>Summary!L3</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="76">
+        <f>Summary!M3</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="76">
+        <f>Summary!N3</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="76">
+        <f>Summary!O3</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="76">
+        <f>Summary!P3</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="76">
+        <f>Summary!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="76">
+        <f>Summary!R3</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="76">
+        <f>Summary!S3</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="76">
+        <f>Summary!T3</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="76">
+        <f>Summary!U3</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="77">
+        <f>Summary!V3</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="X4" s="56" t="s">
+      <c r="Y4" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF4" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG4" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI4" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA4" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB4" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC4" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD4" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE4" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF4" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG4" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH4" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI4" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ4" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="58"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="56"/>
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
       <c r="AO4" s="8"/>
@@ -22656,8 +22723,8 @@
       <c r="AF5" s="52"/>
       <c r="AG5" s="52"/>
       <c r="AH5" s="52"/>
-      <c r="AI5" s="65"/>
-      <c r="AJ5" s="66"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="64"/>
       <c r="AK5" s="52"/>
       <c r="AL5" s="53"/>
     </row>
@@ -49250,9 +49317,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="C4:V4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
